--- a/podshibakin/03.11.23.xlsx
+++ b/podshibakin/03.11.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k221-19\Documents\41МР\попов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{802F7A1B-3DF8-4C92-B41A-9EB4745D6A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E4A71-69D5-4E93-854A-0AC4DDC9A3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81DAC5D5-C87F-4C3C-9945-5DF73BB22143}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>x0</t>
   </si>
@@ -71,6 +71,30 @@
   <si>
     <t>x+h/2</t>
   </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
 </sst>
 </file>
 
@@ -79,10 +103,17 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -426,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055606B-038D-4B64-8E55-3402C030A389}">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:W205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +470,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -468,7 +499,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
@@ -493,8 +524,32 @@
       <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -525,7 +580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -538,7 +593,7 @@
         <v>5.1499999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F7" s="1">
         <v>2</v>
       </c>
@@ -551,7 +606,7 @@
         <v>5.2499999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F8" s="1">
         <v>3</v>
       </c>
@@ -564,7 +619,7 @@
         <v>5.3499999999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F9" s="1">
         <v>4</v>
       </c>
@@ -577,7 +632,7 @@
         <v>5.4499999999999984</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F10" s="1">
         <v>5</v>
       </c>
@@ -590,7 +645,7 @@
         <v>5.549999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F11" s="1">
         <v>6</v>
       </c>
@@ -603,7 +658,7 @@
         <v>5.6499999999999977</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
         <v>7</v>
       </c>
@@ -616,7 +671,7 @@
         <v>5.7499999999999973</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F13" s="1">
         <v>8</v>
       </c>
@@ -629,7 +684,7 @@
         <v>5.849999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
         <v>9</v>
       </c>
@@ -642,7 +697,7 @@
         <v>5.9499999999999966</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
         <v>10</v>
       </c>
@@ -655,7 +710,7 @@
         <v>6.0499999999999963</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <v>11</v>
       </c>
@@ -3126,6 +3181,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/podshibakin/03.11.23.xlsx
+++ b/podshibakin/03.11.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k221-19\Documents\41МР\попов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152E4A71-69D5-4E93-854A-0AC4DDC9A3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC506208-457F-47CB-B4DD-FD27CC8FEBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81DAC5D5-C87F-4C3C-9945-5DF73BB22143}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>x0</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>x4</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>z1</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055606B-038D-4B64-8E55-3402C030A389}">
-  <dimension ref="A1:W205"/>
+  <dimension ref="A1:Y205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +476,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -499,7 +505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,32 +530,38 @@
       <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -579,8 +591,16 @@
         <f>J5*K5+L5+5</f>
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <f>J5</f>
+        <v>7</v>
+      </c>
+      <c r="O5" s="1">
+        <f>M5</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -589,137 +609,137 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H69" si="0">G6+$D$2</f>
+        <f>G6+$D$2</f>
         <v>5.1499999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G70" si="1">G6+$B$2</f>
+        <f t="shared" ref="G7:G70" si="0">G6+$B$2</f>
         <v>5.1999999999999993</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f>G7+$D$2</f>
         <v>5.2499999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.2999999999999989</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f>G8+$D$2</f>
         <v>5.3499999999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f>G9+$D$2</f>
         <v>5.4499999999999984</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F10" s="1">
         <v>5</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4999999999999982</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f>G10+$D$2</f>
         <v>5.549999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F11" s="1">
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5999999999999979</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f>G11+$D$2</f>
         <v>5.6499999999999977</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F12" s="1">
         <v>7</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6999999999999975</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f>G12+$D$2</f>
         <v>5.7499999999999973</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F13" s="1">
         <v>8</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7999999999999972</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f>G13+$D$2</f>
         <v>5.849999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F14" s="1">
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8999999999999968</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f>G14+$D$2</f>
         <v>5.9499999999999966</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F15" s="1">
         <v>10</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.9999999999999964</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f>G15+$D$2</f>
         <v>6.0499999999999963</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <v>11</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0999999999999961</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f>G16+$D$2</f>
         <v>6.1499999999999959</v>
       </c>
     </row>
@@ -728,11 +748,11 @@
         <v>12</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1999999999999957</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f>G17+$D$2</f>
         <v>6.2499999999999956</v>
       </c>
     </row>
@@ -741,11 +761,11 @@
         <v>13</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2999999999999954</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f>G18+$D$2</f>
         <v>6.3499999999999952</v>
       </c>
     </row>
@@ -754,11 +774,11 @@
         <v>14</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.399999999999995</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f>G19+$D$2</f>
         <v>6.4499999999999948</v>
       </c>
     </row>
@@ -767,11 +787,11 @@
         <v>15</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.4999999999999947</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f>G20+$D$2</f>
         <v>6.5499999999999945</v>
       </c>
     </row>
@@ -780,11 +800,11 @@
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f>G21+$D$2</f>
         <v>6.6499999999999941</v>
       </c>
     </row>
@@ -793,11 +813,11 @@
         <v>17</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.699999999999994</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f>G22+$D$2</f>
         <v>6.7499999999999938</v>
       </c>
     </row>
@@ -806,11 +826,11 @@
         <v>18</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7999999999999936</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f>G23+$D$2</f>
         <v>6.8499999999999934</v>
       </c>
     </row>
@@ -819,11 +839,11 @@
         <v>19</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.8999999999999932</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f>G24+$D$2</f>
         <v>6.9499999999999931</v>
       </c>
     </row>
@@ -832,11 +852,11 @@
         <v>20</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.9999999999999929</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f>G25+$D$2</f>
         <v>7.0499999999999927</v>
       </c>
     </row>
@@ -845,11 +865,11 @@
         <v>21</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0999999999999925</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f>G26+$D$2</f>
         <v>7.1499999999999924</v>
       </c>
     </row>
@@ -858,11 +878,11 @@
         <v>22</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.1999999999999922</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f>G27+$D$2</f>
         <v>7.249999999999992</v>
       </c>
     </row>
@@ -871,11 +891,11 @@
         <v>23</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.2999999999999918</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f>G28+$D$2</f>
         <v>7.3499999999999917</v>
       </c>
     </row>
@@ -884,11 +904,11 @@
         <v>24</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3999999999999915</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f>G29+$D$2</f>
         <v>7.4499999999999913</v>
       </c>
     </row>
@@ -897,11 +917,11 @@
         <v>25</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4999999999999911</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f>G30+$D$2</f>
         <v>7.5499999999999909</v>
       </c>
     </row>
@@ -910,11 +930,11 @@
         <v>26</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5999999999999908</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f>G31+$D$2</f>
         <v>7.6499999999999906</v>
       </c>
     </row>
@@ -923,11 +943,11 @@
         <v>27</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6999999999999904</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="0"/>
+        <f>G32+$D$2</f>
         <v>7.7499999999999902</v>
       </c>
     </row>
@@ -936,11 +956,11 @@
         <v>28</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.7999999999999901</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
+        <f>G33+$D$2</f>
         <v>7.8499999999999899</v>
       </c>
     </row>
@@ -949,11 +969,11 @@
         <v>29</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8999999999999897</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="0"/>
+        <f>G34+$D$2</f>
         <v>7.9499999999999895</v>
       </c>
     </row>
@@ -962,11 +982,11 @@
         <v>30</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9999999999999893</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
+        <f>G35+$D$2</f>
         <v>8.0499999999999901</v>
       </c>
     </row>
@@ -975,11 +995,11 @@
         <v>31</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.099999999999989</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="0"/>
+        <f>G36+$D$2</f>
         <v>8.1499999999999897</v>
       </c>
     </row>
@@ -988,11 +1008,11 @@
         <v>32</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1999999999999886</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="0"/>
+        <f>G37+$D$2</f>
         <v>8.2499999999999893</v>
       </c>
     </row>
@@ -1001,11 +1021,11 @@
         <v>33</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.2999999999999883</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="0"/>
+        <f>G38+$D$2</f>
         <v>8.349999999999989</v>
       </c>
     </row>
@@ -1014,11 +1034,11 @@
         <v>34</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3999999999999879</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
+        <f>G39+$D$2</f>
         <v>8.4499999999999886</v>
       </c>
     </row>
@@ -1027,11 +1047,11 @@
         <v>35</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4999999999999876</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="0"/>
+        <f>G40+$D$2</f>
         <v>8.5499999999999883</v>
       </c>
     </row>
@@ -1040,11 +1060,11 @@
         <v>36</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5999999999999872</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="0"/>
+        <f>G41+$D$2</f>
         <v>8.6499999999999879</v>
       </c>
     </row>
@@ -1053,11 +1073,11 @@
         <v>37</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6999999999999869</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="0"/>
+        <f>G42+$D$2</f>
         <v>8.7499999999999876</v>
       </c>
     </row>
@@ -1066,11 +1086,11 @@
         <v>38</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.7999999999999865</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="0"/>
+        <f>G43+$D$2</f>
         <v>8.8499999999999872</v>
       </c>
     </row>
@@ -1079,11 +1099,11 @@
         <v>39</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8999999999999861</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="0"/>
+        <f>G44+$D$2</f>
         <v>8.9499999999999869</v>
       </c>
     </row>
@@ -1092,11 +1112,11 @@
         <v>40</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.9999999999999858</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="0"/>
+        <f>G45+$D$2</f>
         <v>9.0499999999999865</v>
       </c>
     </row>
@@ -1105,11 +1125,11 @@
         <v>41</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.0999999999999854</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="0"/>
+        <f>G46+$D$2</f>
         <v>9.1499999999999861</v>
       </c>
     </row>
@@ -1118,11 +1138,11 @@
         <v>42</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.1999999999999851</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
+        <f>G47+$D$2</f>
         <v>9.2499999999999858</v>
       </c>
     </row>
@@ -1131,11 +1151,11 @@
         <v>43</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.2999999999999847</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="0"/>
+        <f>G48+$D$2</f>
         <v>9.3499999999999854</v>
       </c>
     </row>
@@ -1144,11 +1164,11 @@
         <v>44</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.3999999999999844</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="0"/>
+        <f>G49+$D$2</f>
         <v>9.4499999999999851</v>
       </c>
     </row>
@@ -1157,11 +1177,11 @@
         <v>45</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.499999999999984</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="0"/>
+        <f>G50+$D$2</f>
         <v>9.5499999999999847</v>
       </c>
     </row>
@@ -1170,11 +1190,11 @@
         <v>46</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5999999999999837</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="0"/>
+        <f>G51+$D$2</f>
         <v>9.6499999999999844</v>
       </c>
     </row>
@@ -1183,11 +1203,11 @@
         <v>47</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6999999999999833</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="0"/>
+        <f>G52+$D$2</f>
         <v>9.749999999999984</v>
       </c>
     </row>
@@ -1196,11 +1216,11 @@
         <v>48</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.7999999999999829</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="0"/>
+        <f>G53+$D$2</f>
         <v>9.8499999999999837</v>
       </c>
     </row>
@@ -1209,11 +1229,11 @@
         <v>49</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.8999999999999826</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="0"/>
+        <f>G54+$D$2</f>
         <v>9.9499999999999833</v>
       </c>
     </row>
@@ -1222,11 +1242,11 @@
         <v>50</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999822</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="0"/>
+        <f>G55+$D$2</f>
         <v>10.049999999999983</v>
       </c>
     </row>
@@ -1235,11 +1255,11 @@
         <v>51</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.099999999999982</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="0"/>
+        <f>G56+$D$2</f>
         <v>10.149999999999983</v>
       </c>
     </row>
@@ -1248,11 +1268,11 @@
         <v>52</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.199999999999982</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="0"/>
+        <f>G57+$D$2</f>
         <v>10.249999999999982</v>
       </c>
     </row>
@@ -1261,11 +1281,11 @@
         <v>53</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.299999999999981</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="0"/>
+        <f>G58+$D$2</f>
         <v>10.349999999999982</v>
       </c>
     </row>
@@ -1274,11 +1294,11 @@
         <v>54</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.399999999999981</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="0"/>
+        <f>G59+$D$2</f>
         <v>10.449999999999982</v>
       </c>
     </row>
@@ -1287,11 +1307,11 @@
         <v>55</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.49999999999998</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="0"/>
+        <f>G60+$D$2</f>
         <v>10.549999999999981</v>
       </c>
     </row>
@@ -1300,11 +1320,11 @@
         <v>56</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.59999999999998</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="0"/>
+        <f>G61+$D$2</f>
         <v>10.649999999999981</v>
       </c>
     </row>
@@ -1313,11 +1333,11 @@
         <v>57</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.69999999999998</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="0"/>
+        <f>G62+$D$2</f>
         <v>10.74999999999998</v>
       </c>
     </row>
@@ -1326,11 +1346,11 @@
         <v>58</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.799999999999979</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="0"/>
+        <f>G63+$D$2</f>
         <v>10.84999999999998</v>
       </c>
     </row>
@@ -1339,11 +1359,11 @@
         <v>59</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.899999999999979</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="0"/>
+        <f>G64+$D$2</f>
         <v>10.94999999999998</v>
       </c>
     </row>
@@ -1352,11 +1372,11 @@
         <v>60</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.999999999999979</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="0"/>
+        <f>G65+$D$2</f>
         <v>11.049999999999979</v>
       </c>
     </row>
@@ -1365,11 +1385,11 @@
         <v>61</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.099999999999978</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="0"/>
+        <f>G66+$D$2</f>
         <v>11.149999999999979</v>
       </c>
     </row>
@@ -1378,11 +1398,11 @@
         <v>62</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.199999999999978</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="0"/>
+        <f>G67+$D$2</f>
         <v>11.249999999999979</v>
       </c>
     </row>
@@ -1391,11 +1411,11 @@
         <v>63</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.299999999999978</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="0"/>
+        <f>G68+$D$2</f>
         <v>11.349999999999978</v>
       </c>
     </row>
@@ -1404,11 +1424,11 @@
         <v>64</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.399999999999977</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="0"/>
+        <f>G69+$D$2</f>
         <v>11.449999999999978</v>
       </c>
     </row>
@@ -1417,11 +1437,11 @@
         <v>65</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.499999999999977</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" ref="H70:H133" si="2">G70+$D$2</f>
+        <f>G70+$D$2</f>
         <v>11.549999999999978</v>
       </c>
     </row>
@@ -1430,11 +1450,11 @@
         <v>66</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" ref="G71:G134" si="3">G70+$B$2</f>
+        <f t="shared" ref="G71:G134" si="1">G70+$B$2</f>
         <v>11.599999999999977</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="2"/>
+        <f>G71+$D$2</f>
         <v>11.649999999999977</v>
       </c>
     </row>
@@ -1443,11 +1463,11 @@
         <v>67</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.699999999999976</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="2"/>
+        <f>G72+$D$2</f>
         <v>11.749999999999977</v>
       </c>
     </row>
@@ -1456,11 +1476,11 @@
         <v>68</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.799999999999976</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="2"/>
+        <f>G73+$D$2</f>
         <v>11.849999999999977</v>
       </c>
     </row>
@@ -1469,11 +1489,11 @@
         <v>69</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.899999999999975</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="2"/>
+        <f>G74+$D$2</f>
         <v>11.949999999999976</v>
       </c>
     </row>
@@ -1482,11 +1502,11 @@
         <v>70</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.999999999999975</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="2"/>
+        <f>G75+$D$2</f>
         <v>12.049999999999976</v>
       </c>
     </row>
@@ -1495,11 +1515,11 @@
         <v>71</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.099999999999975</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="2"/>
+        <f>G76+$D$2</f>
         <v>12.149999999999975</v>
       </c>
     </row>
@@ -1508,11 +1528,11 @@
         <v>72</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.199999999999974</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="2"/>
+        <f>G77+$D$2</f>
         <v>12.249999999999975</v>
       </c>
     </row>
@@ -1521,11 +1541,11 @@
         <v>73</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.299999999999974</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="2"/>
+        <f>G78+$D$2</f>
         <v>12.349999999999975</v>
       </c>
     </row>
@@ -1534,11 +1554,11 @@
         <v>74</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.399999999999974</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="2"/>
+        <f>G79+$D$2</f>
         <v>12.449999999999974</v>
       </c>
     </row>
@@ -1547,11 +1567,11 @@
         <v>75</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.499999999999973</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="2"/>
+        <f>G80+$D$2</f>
         <v>12.549999999999974</v>
       </c>
     </row>
@@ -1560,11 +1580,11 @@
         <v>76</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.599999999999973</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="2"/>
+        <f>G81+$D$2</f>
         <v>12.649999999999974</v>
       </c>
     </row>
@@ -1573,11 +1593,11 @@
         <v>77</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.699999999999973</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="2"/>
+        <f>G82+$D$2</f>
         <v>12.749999999999973</v>
       </c>
     </row>
@@ -1586,11 +1606,11 @@
         <v>78</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.799999999999972</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="2"/>
+        <f>G83+$D$2</f>
         <v>12.849999999999973</v>
       </c>
     </row>
@@ -1599,11 +1619,11 @@
         <v>79</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.899999999999972</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="2"/>
+        <f>G84+$D$2</f>
         <v>12.949999999999973</v>
       </c>
     </row>
@@ -1612,11 +1632,11 @@
         <v>80</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.999999999999972</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="2"/>
+        <f>G85+$D$2</f>
         <v>13.049999999999972</v>
       </c>
     </row>
@@ -1625,11 +1645,11 @@
         <v>81</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.099999999999971</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="2"/>
+        <f>G86+$D$2</f>
         <v>13.149999999999972</v>
       </c>
     </row>
@@ -1638,11 +1658,11 @@
         <v>82</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.199999999999971</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="2"/>
+        <f>G87+$D$2</f>
         <v>13.249999999999972</v>
       </c>
     </row>
@@ -1651,11 +1671,11 @@
         <v>83</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.299999999999971</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="2"/>
+        <f>G88+$D$2</f>
         <v>13.349999999999971</v>
       </c>
     </row>
@@ -1664,11 +1684,11 @@
         <v>84</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.39999999999997</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="2"/>
+        <f>G89+$D$2</f>
         <v>13.449999999999971</v>
       </c>
     </row>
@@ -1677,11 +1697,11 @@
         <v>85</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.49999999999997</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="2"/>
+        <f>G90+$D$2</f>
         <v>13.549999999999971</v>
       </c>
     </row>
@@ -1690,11 +1710,11 @@
         <v>86</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.599999999999969</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="2"/>
+        <f>G91+$D$2</f>
         <v>13.64999999999997</v>
       </c>
     </row>
@@ -1703,11 +1723,11 @@
         <v>87</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.699999999999969</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="2"/>
+        <f>G92+$D$2</f>
         <v>13.74999999999997</v>
       </c>
     </row>
@@ -1716,11 +1736,11 @@
         <v>88</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.799999999999969</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="2"/>
+        <f>G93+$D$2</f>
         <v>13.849999999999969</v>
       </c>
     </row>
@@ -1729,11 +1749,11 @@
         <v>89</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.899999999999968</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="2"/>
+        <f>G94+$D$2</f>
         <v>13.949999999999969</v>
       </c>
     </row>
@@ -1742,11 +1762,11 @@
         <v>90</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.999999999999968</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="2"/>
+        <f>G95+$D$2</f>
         <v>14.049999999999969</v>
       </c>
     </row>
@@ -1755,11 +1775,11 @@
         <v>91</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.099999999999968</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="2"/>
+        <f>G96+$D$2</f>
         <v>14.149999999999968</v>
       </c>
     </row>
@@ -1768,11 +1788,11 @@
         <v>92</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.199999999999967</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="2"/>
+        <f>G97+$D$2</f>
         <v>14.249999999999968</v>
       </c>
     </row>
@@ -1781,11 +1801,11 @@
         <v>93</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.299999999999967</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="2"/>
+        <f>G98+$D$2</f>
         <v>14.349999999999968</v>
       </c>
     </row>
@@ -1794,11 +1814,11 @@
         <v>94</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.399999999999967</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="2"/>
+        <f>G99+$D$2</f>
         <v>14.449999999999967</v>
       </c>
     </row>
@@ -1807,11 +1827,11 @@
         <v>95</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.499999999999966</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="2"/>
+        <f>G100+$D$2</f>
         <v>14.549999999999967</v>
       </c>
     </row>
@@ -1820,11 +1840,11 @@
         <v>96</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.599999999999966</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="2"/>
+        <f>G101+$D$2</f>
         <v>14.649999999999967</v>
       </c>
     </row>
@@ -1833,11 +1853,11 @@
         <v>97</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.699999999999966</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="2"/>
+        <f>G102+$D$2</f>
         <v>14.749999999999966</v>
       </c>
     </row>
@@ -1846,11 +1866,11 @@
         <v>98</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.799999999999965</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="2"/>
+        <f>G103+$D$2</f>
         <v>14.849999999999966</v>
       </c>
     </row>
@@ -1859,11 +1879,11 @@
         <v>99</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.899999999999965</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="2"/>
+        <f>G104+$D$2</f>
         <v>14.949999999999966</v>
       </c>
     </row>
@@ -1872,11 +1892,11 @@
         <v>100</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.999999999999964</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="2"/>
+        <f>G105+$D$2</f>
         <v>15.049999999999965</v>
       </c>
     </row>
@@ -1885,11 +1905,11 @@
         <v>101</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.099999999999964</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="2"/>
+        <f>G106+$D$2</f>
         <v>15.149999999999965</v>
       </c>
     </row>
@@ -1898,11 +1918,11 @@
         <v>102</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.199999999999964</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="2"/>
+        <f>G107+$D$2</f>
         <v>15.249999999999964</v>
       </c>
     </row>
@@ -1911,11 +1931,11 @@
         <v>103</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.299999999999963</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="2"/>
+        <f>G108+$D$2</f>
         <v>15.349999999999964</v>
       </c>
     </row>
@@ -1924,11 +1944,11 @@
         <v>104</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.399999999999963</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="2"/>
+        <f>G109+$D$2</f>
         <v>15.449999999999964</v>
       </c>
     </row>
@@ -1937,11 +1957,11 @@
         <v>105</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.499999999999963</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="2"/>
+        <f>G110+$D$2</f>
         <v>15.549999999999963</v>
       </c>
     </row>
@@ -1950,11 +1970,11 @@
         <v>106</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.599999999999962</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="2"/>
+        <f>G111+$D$2</f>
         <v>15.649999999999963</v>
       </c>
     </row>
@@ -1963,11 +1983,11 @@
         <v>107</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.699999999999962</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="2"/>
+        <f>G112+$D$2</f>
         <v>15.749999999999963</v>
       </c>
     </row>
@@ -1976,11 +1996,11 @@
         <v>108</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.799999999999962</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="2"/>
+        <f>G113+$D$2</f>
         <v>15.849999999999962</v>
       </c>
     </row>
@@ -1989,11 +2009,11 @@
         <v>109</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.899999999999961</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="2"/>
+        <f>G114+$D$2</f>
         <v>15.949999999999962</v>
       </c>
     </row>
@@ -2002,11 +2022,11 @@
         <v>110</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.999999999999961</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="2"/>
+        <f>G115+$D$2</f>
         <v>16.049999999999962</v>
       </c>
     </row>
@@ -2015,11 +2035,11 @@
         <v>111</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.099999999999962</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="2"/>
+        <f>G116+$D$2</f>
         <v>16.149999999999963</v>
       </c>
     </row>
@@ -2028,11 +2048,11 @@
         <v>112</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.199999999999964</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="2"/>
+        <f>G117+$D$2</f>
         <v>16.249999999999964</v>
       </c>
     </row>
@@ -2041,11 +2061,11 @@
         <v>113</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.299999999999965</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="2"/>
+        <f>G118+$D$2</f>
         <v>16.349999999999966</v>
       </c>
     </row>
@@ -2054,11 +2074,11 @@
         <v>114</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.399999999999967</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="2"/>
+        <f>G119+$D$2</f>
         <v>16.449999999999967</v>
       </c>
     </row>
@@ -2067,11 +2087,11 @@
         <v>115</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.499999999999968</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="2"/>
+        <f>G120+$D$2</f>
         <v>16.549999999999969</v>
       </c>
     </row>
@@ -2080,11 +2100,11 @@
         <v>116</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.599999999999969</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="2"/>
+        <f>G121+$D$2</f>
         <v>16.64999999999997</v>
       </c>
     </row>
@@ -2093,11 +2113,11 @@
         <v>117</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.699999999999971</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="2"/>
+        <f>G122+$D$2</f>
         <v>16.749999999999972</v>
       </c>
     </row>
@@ -2106,11 +2126,11 @@
         <v>118</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.799999999999972</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="2"/>
+        <f>G123+$D$2</f>
         <v>16.849999999999973</v>
       </c>
     </row>
@@ -2119,11 +2139,11 @@
         <v>119</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.899999999999974</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="2"/>
+        <f>G124+$D$2</f>
         <v>16.949999999999974</v>
       </c>
     </row>
@@ -2132,11 +2152,11 @@
         <v>120</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16.999999999999975</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="2"/>
+        <f>G125+$D$2</f>
         <v>17.049999999999976</v>
       </c>
     </row>
@@ -2145,11 +2165,11 @@
         <v>121</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.099999999999977</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="2"/>
+        <f>G126+$D$2</f>
         <v>17.149999999999977</v>
       </c>
     </row>
@@ -2158,11 +2178,11 @@
         <v>122</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.199999999999978</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="2"/>
+        <f>G127+$D$2</f>
         <v>17.249999999999979</v>
       </c>
     </row>
@@ -2171,11 +2191,11 @@
         <v>123</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.299999999999979</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="2"/>
+        <f>G128+$D$2</f>
         <v>17.34999999999998</v>
       </c>
     </row>
@@ -2184,11 +2204,11 @@
         <v>124</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.399999999999981</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="2"/>
+        <f>G129+$D$2</f>
         <v>17.449999999999982</v>
       </c>
     </row>
@@ -2197,11 +2217,11 @@
         <v>125</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.499999999999982</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="2"/>
+        <f>G130+$D$2</f>
         <v>17.549999999999983</v>
       </c>
     </row>
@@ -2210,11 +2230,11 @@
         <v>126</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.599999999999984</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" si="2"/>
+        <f>G131+$D$2</f>
         <v>17.649999999999984</v>
       </c>
     </row>
@@ -2223,11 +2243,11 @@
         <v>127</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.699999999999985</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" si="2"/>
+        <f>G132+$D$2</f>
         <v>17.749999999999986</v>
       </c>
     </row>
@@ -2236,11 +2256,11 @@
         <v>128</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.799999999999986</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="2"/>
+        <f>G133+$D$2</f>
         <v>17.849999999999987</v>
       </c>
     </row>
@@ -2249,11 +2269,11 @@
         <v>129</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17.899999999999988</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" ref="H134:H197" si="4">G134+$D$2</f>
+        <f>G134+$D$2</f>
         <v>17.949999999999989</v>
       </c>
     </row>
@@ -2262,11 +2282,11 @@
         <v>130</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" ref="G135:G198" si="5">G134+$B$2</f>
+        <f t="shared" ref="G135:G198" si="2">G134+$B$2</f>
         <v>17.999999999999989</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="4"/>
+        <f>G135+$D$2</f>
         <v>18.04999999999999</v>
       </c>
     </row>
@@ -2275,11 +2295,11 @@
         <v>131</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.099999999999991</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="4"/>
+        <f>G136+$D$2</f>
         <v>18.149999999999991</v>
       </c>
     </row>
@@ -2288,11 +2308,11 @@
         <v>132</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.199999999999992</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="4"/>
+        <f>G137+$D$2</f>
         <v>18.249999999999993</v>
       </c>
     </row>
@@ -2301,11 +2321,11 @@
         <v>133</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.299999999999994</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" si="4"/>
+        <f>G138+$D$2</f>
         <v>18.349999999999994</v>
       </c>
     </row>
@@ -2314,11 +2334,11 @@
         <v>134</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.399999999999995</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" si="4"/>
+        <f>G139+$D$2</f>
         <v>18.449999999999996</v>
       </c>
     </row>
@@ -2327,11 +2347,11 @@
         <v>135</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.499999999999996</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="4"/>
+        <f>G140+$D$2</f>
         <v>18.549999999999997</v>
       </c>
     </row>
@@ -2340,11 +2360,11 @@
         <v>136</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.599999999999998</v>
       </c>
       <c r="H141" s="1">
-        <f t="shared" si="4"/>
+        <f>G141+$D$2</f>
         <v>18.649999999999999</v>
       </c>
     </row>
@@ -2353,11 +2373,11 @@
         <v>137</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.7</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" si="4"/>
+        <f>G142+$D$2</f>
         <v>18.75</v>
       </c>
     </row>
@@ -2366,11 +2386,11 @@
         <v>138</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.8</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="4"/>
+        <f>G143+$D$2</f>
         <v>18.850000000000001</v>
       </c>
     </row>
@@ -2379,11 +2399,11 @@
         <v>139</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>18.900000000000002</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="4"/>
+        <f>G144+$D$2</f>
         <v>18.950000000000003</v>
       </c>
     </row>
@@ -2392,11 +2412,11 @@
         <v>140</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.000000000000004</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" si="4"/>
+        <f>G145+$D$2</f>
         <v>19.050000000000004</v>
       </c>
     </row>
@@ -2405,11 +2425,11 @@
         <v>141</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.100000000000005</v>
       </c>
       <c r="H146" s="1">
-        <f t="shared" si="4"/>
+        <f>G146+$D$2</f>
         <v>19.150000000000006</v>
       </c>
     </row>
@@ -2418,11 +2438,11 @@
         <v>142</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.200000000000006</v>
       </c>
       <c r="H147" s="1">
-        <f t="shared" si="4"/>
+        <f>G147+$D$2</f>
         <v>19.250000000000007</v>
       </c>
     </row>
@@ -2431,11 +2451,11 @@
         <v>143</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.300000000000008</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" si="4"/>
+        <f>G148+$D$2</f>
         <v>19.350000000000009</v>
       </c>
     </row>
@@ -2444,11 +2464,11 @@
         <v>144</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.400000000000009</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="4"/>
+        <f>G149+$D$2</f>
         <v>19.45000000000001</v>
       </c>
     </row>
@@ -2457,11 +2477,11 @@
         <v>145</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.500000000000011</v>
       </c>
       <c r="H150" s="1">
-        <f t="shared" si="4"/>
+        <f>G150+$D$2</f>
         <v>19.550000000000011</v>
       </c>
     </row>
@@ -2470,11 +2490,11 @@
         <v>146</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.600000000000012</v>
       </c>
       <c r="H151" s="1">
-        <f t="shared" si="4"/>
+        <f>G151+$D$2</f>
         <v>19.650000000000013</v>
       </c>
     </row>
@@ -2483,11 +2503,11 @@
         <v>147</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.700000000000014</v>
       </c>
       <c r="H152" s="1">
-        <f t="shared" si="4"/>
+        <f>G152+$D$2</f>
         <v>19.750000000000014</v>
       </c>
     </row>
@@ -2496,11 +2516,11 @@
         <v>148</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.800000000000015</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="4"/>
+        <f>G153+$D$2</f>
         <v>19.850000000000016</v>
       </c>
     </row>
@@ -2509,11 +2529,11 @@
         <v>149</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>19.900000000000016</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="4"/>
+        <f>G154+$D$2</f>
         <v>19.950000000000017</v>
       </c>
     </row>
@@ -2522,11 +2542,11 @@
         <v>150</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.000000000000018</v>
       </c>
       <c r="H155" s="1">
-        <f t="shared" si="4"/>
+        <f>G155+$D$2</f>
         <v>20.050000000000018</v>
       </c>
     </row>
@@ -2535,11 +2555,11 @@
         <v>151</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.100000000000019</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" si="4"/>
+        <f>G156+$D$2</f>
         <v>20.15000000000002</v>
       </c>
     </row>
@@ -2548,11 +2568,11 @@
         <v>152</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.200000000000021</v>
       </c>
       <c r="H157" s="1">
-        <f t="shared" si="4"/>
+        <f>G157+$D$2</f>
         <v>20.250000000000021</v>
       </c>
     </row>
@@ -2561,11 +2581,11 @@
         <v>153</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.300000000000022</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="4"/>
+        <f>G158+$D$2</f>
         <v>20.350000000000023</v>
       </c>
     </row>
@@ -2574,11 +2594,11 @@
         <v>154</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.400000000000023</v>
       </c>
       <c r="H159" s="1">
-        <f t="shared" si="4"/>
+        <f>G159+$D$2</f>
         <v>20.450000000000024</v>
       </c>
     </row>
@@ -2587,11 +2607,11 @@
         <v>155</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.500000000000025</v>
       </c>
       <c r="H160" s="1">
-        <f t="shared" si="4"/>
+        <f>G160+$D$2</f>
         <v>20.550000000000026</v>
       </c>
     </row>
@@ -2600,11 +2620,11 @@
         <v>156</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.600000000000026</v>
       </c>
       <c r="H161" s="1">
-        <f t="shared" si="4"/>
+        <f>G161+$D$2</f>
         <v>20.650000000000027</v>
       </c>
     </row>
@@ -2613,11 +2633,11 @@
         <v>157</v>
       </c>
       <c r="G162" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.700000000000028</v>
       </c>
       <c r="H162" s="1">
-        <f t="shared" si="4"/>
+        <f>G162+$D$2</f>
         <v>20.750000000000028</v>
       </c>
     </row>
@@ -2626,11 +2646,11 @@
         <v>158</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.800000000000029</v>
       </c>
       <c r="H163" s="1">
-        <f t="shared" si="4"/>
+        <f>G163+$D$2</f>
         <v>20.85000000000003</v>
       </c>
     </row>
@@ -2639,11 +2659,11 @@
         <v>159</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20.900000000000031</v>
       </c>
       <c r="H164" s="1">
-        <f t="shared" si="4"/>
+        <f>G164+$D$2</f>
         <v>20.950000000000031</v>
       </c>
     </row>
@@ -2652,11 +2672,11 @@
         <v>160</v>
       </c>
       <c r="G165" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.000000000000032</v>
       </c>
       <c r="H165" s="1">
-        <f t="shared" si="4"/>
+        <f>G165+$D$2</f>
         <v>21.050000000000033</v>
       </c>
     </row>
@@ -2665,11 +2685,11 @@
         <v>161</v>
       </c>
       <c r="G166" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.100000000000033</v>
       </c>
       <c r="H166" s="1">
-        <f t="shared" si="4"/>
+        <f>G166+$D$2</f>
         <v>21.150000000000034</v>
       </c>
     </row>
@@ -2678,11 +2698,11 @@
         <v>162</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.200000000000035</v>
       </c>
       <c r="H167" s="1">
-        <f t="shared" si="4"/>
+        <f>G167+$D$2</f>
         <v>21.250000000000036</v>
       </c>
     </row>
@@ -2691,11 +2711,11 @@
         <v>163</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.300000000000036</v>
       </c>
       <c r="H168" s="1">
-        <f t="shared" si="4"/>
+        <f>G168+$D$2</f>
         <v>21.350000000000037</v>
       </c>
     </row>
@@ -2704,11 +2724,11 @@
         <v>164</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.400000000000038</v>
       </c>
       <c r="H169" s="1">
-        <f t="shared" si="4"/>
+        <f>G169+$D$2</f>
         <v>21.450000000000038</v>
       </c>
     </row>
@@ -2717,11 +2737,11 @@
         <v>165</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.500000000000039</v>
       </c>
       <c r="H170" s="1">
-        <f t="shared" si="4"/>
+        <f>G170+$D$2</f>
         <v>21.55000000000004</v>
       </c>
     </row>
@@ -2730,11 +2750,11 @@
         <v>166</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.600000000000041</v>
       </c>
       <c r="H171" s="1">
-        <f t="shared" si="4"/>
+        <f>G171+$D$2</f>
         <v>21.650000000000041</v>
       </c>
     </row>
@@ -2743,11 +2763,11 @@
         <v>167</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.700000000000042</v>
       </c>
       <c r="H172" s="1">
-        <f t="shared" si="4"/>
+        <f>G172+$D$2</f>
         <v>21.750000000000043</v>
       </c>
     </row>
@@ -2756,11 +2776,11 @@
         <v>168</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.800000000000043</v>
       </c>
       <c r="H173" s="1">
-        <f t="shared" si="4"/>
+        <f>G173+$D$2</f>
         <v>21.850000000000044</v>
       </c>
     </row>
@@ -2769,11 +2789,11 @@
         <v>169</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>21.900000000000045</v>
       </c>
       <c r="H174" s="1">
-        <f t="shared" si="4"/>
+        <f>G174+$D$2</f>
         <v>21.950000000000045</v>
       </c>
     </row>
@@ -2782,11 +2802,11 @@
         <v>170</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.000000000000046</v>
       </c>
       <c r="H175" s="1">
-        <f t="shared" si="4"/>
+        <f>G175+$D$2</f>
         <v>22.050000000000047</v>
       </c>
     </row>
@@ -2795,11 +2815,11 @@
         <v>171</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.100000000000048</v>
       </c>
       <c r="H176" s="1">
-        <f t="shared" si="4"/>
+        <f>G176+$D$2</f>
         <v>22.150000000000048</v>
       </c>
     </row>
@@ -2808,11 +2828,11 @@
         <v>172</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.200000000000049</v>
       </c>
       <c r="H177" s="1">
-        <f t="shared" si="4"/>
+        <f>G177+$D$2</f>
         <v>22.25000000000005</v>
       </c>
     </row>
@@ -2821,11 +2841,11 @@
         <v>173</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.30000000000005</v>
       </c>
       <c r="H178" s="1">
-        <f t="shared" si="4"/>
+        <f>G178+$D$2</f>
         <v>22.350000000000051</v>
       </c>
     </row>
@@ -2834,11 +2854,11 @@
         <v>174</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.400000000000052</v>
       </c>
       <c r="H179" s="1">
-        <f t="shared" si="4"/>
+        <f>G179+$D$2</f>
         <v>22.450000000000053</v>
       </c>
     </row>
@@ -2847,11 +2867,11 @@
         <v>175</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.500000000000053</v>
       </c>
       <c r="H180" s="1">
-        <f t="shared" si="4"/>
+        <f>G180+$D$2</f>
         <v>22.550000000000054</v>
       </c>
     </row>
@@ -2860,11 +2880,11 @@
         <v>176</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.600000000000055</v>
       </c>
       <c r="H181" s="1">
-        <f t="shared" si="4"/>
+        <f>G181+$D$2</f>
         <v>22.650000000000055</v>
       </c>
     </row>
@@ -2873,11 +2893,11 @@
         <v>177</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.700000000000056</v>
       </c>
       <c r="H182" s="1">
-        <f t="shared" si="4"/>
+        <f>G182+$D$2</f>
         <v>22.750000000000057</v>
       </c>
     </row>
@@ -2886,11 +2906,11 @@
         <v>178</v>
       </c>
       <c r="G183" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.800000000000058</v>
       </c>
       <c r="H183" s="1">
-        <f t="shared" si="4"/>
+        <f>G183+$D$2</f>
         <v>22.850000000000058</v>
       </c>
     </row>
@@ -2899,11 +2919,11 @@
         <v>179</v>
       </c>
       <c r="G184" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22.900000000000059</v>
       </c>
       <c r="H184" s="1">
-        <f t="shared" si="4"/>
+        <f>G184+$D$2</f>
         <v>22.95000000000006</v>
       </c>
     </row>
@@ -2912,11 +2932,11 @@
         <v>180</v>
       </c>
       <c r="G185" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.00000000000006</v>
       </c>
       <c r="H185" s="1">
-        <f t="shared" si="4"/>
+        <f>G185+$D$2</f>
         <v>23.050000000000061</v>
       </c>
     </row>
@@ -2925,11 +2945,11 @@
         <v>181</v>
       </c>
       <c r="G186" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.100000000000062</v>
       </c>
       <c r="H186" s="1">
-        <f t="shared" si="4"/>
+        <f>G186+$D$2</f>
         <v>23.150000000000063</v>
       </c>
     </row>
@@ -2938,11 +2958,11 @@
         <v>182</v>
       </c>
       <c r="G187" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.200000000000063</v>
       </c>
       <c r="H187" s="1">
-        <f t="shared" si="4"/>
+        <f>G187+$D$2</f>
         <v>23.250000000000064</v>
       </c>
     </row>
@@ -2951,11 +2971,11 @@
         <v>183</v>
       </c>
       <c r="G188" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.300000000000065</v>
       </c>
       <c r="H188" s="1">
-        <f t="shared" si="4"/>
+        <f>G188+$D$2</f>
         <v>23.350000000000065</v>
       </c>
     </row>
@@ -2964,11 +2984,11 @@
         <v>184</v>
       </c>
       <c r="G189" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.400000000000066</v>
       </c>
       <c r="H189" s="1">
-        <f t="shared" si="4"/>
+        <f>G189+$D$2</f>
         <v>23.450000000000067</v>
       </c>
     </row>
@@ -2977,11 +2997,11 @@
         <v>185</v>
       </c>
       <c r="G190" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.500000000000068</v>
       </c>
       <c r="H190" s="1">
-        <f t="shared" si="4"/>
+        <f>G190+$D$2</f>
         <v>23.550000000000068</v>
       </c>
     </row>
@@ -2990,11 +3010,11 @@
         <v>186</v>
       </c>
       <c r="G191" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.600000000000069</v>
       </c>
       <c r="H191" s="1">
-        <f t="shared" si="4"/>
+        <f>G191+$D$2</f>
         <v>23.65000000000007</v>
       </c>
     </row>
@@ -3003,11 +3023,11 @@
         <v>187</v>
       </c>
       <c r="G192" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.70000000000007</v>
       </c>
       <c r="H192" s="1">
-        <f t="shared" si="4"/>
+        <f>G192+$D$2</f>
         <v>23.750000000000071</v>
       </c>
     </row>
@@ -3016,11 +3036,11 @@
         <v>188</v>
       </c>
       <c r="G193" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.800000000000072</v>
       </c>
       <c r="H193" s="1">
-        <f t="shared" si="4"/>
+        <f>G193+$D$2</f>
         <v>23.850000000000072</v>
       </c>
     </row>
@@ -3029,11 +3049,11 @@
         <v>189</v>
       </c>
       <c r="G194" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23.900000000000073</v>
       </c>
       <c r="H194" s="1">
-        <f t="shared" si="4"/>
+        <f>G194+$D$2</f>
         <v>23.950000000000074</v>
       </c>
     </row>
@@ -3042,11 +3062,11 @@
         <v>190</v>
       </c>
       <c r="G195" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>24.000000000000075</v>
       </c>
       <c r="H195" s="1">
-        <f t="shared" si="4"/>
+        <f>G195+$D$2</f>
         <v>24.050000000000075</v>
       </c>
     </row>
@@ -3055,11 +3075,11 @@
         <v>191</v>
       </c>
       <c r="G196" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>24.100000000000076</v>
       </c>
       <c r="H196" s="1">
-        <f t="shared" si="4"/>
+        <f>G196+$D$2</f>
         <v>24.150000000000077</v>
       </c>
     </row>
@@ -3068,11 +3088,11 @@
         <v>192</v>
       </c>
       <c r="G197" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>24.200000000000077</v>
       </c>
       <c r="H197" s="1">
-        <f t="shared" si="4"/>
+        <f>G197+$D$2</f>
         <v>24.250000000000078</v>
       </c>
     </row>
@@ -3081,11 +3101,11 @@
         <v>193</v>
       </c>
       <c r="G198" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>24.300000000000079</v>
       </c>
       <c r="H198" s="1">
-        <f t="shared" ref="H198:H205" si="6">G198+$D$2</f>
+        <f>G198+$D$2</f>
         <v>24.35000000000008</v>
       </c>
     </row>
@@ -3094,11 +3114,11 @@
         <v>194</v>
       </c>
       <c r="G199" s="1">
-        <f t="shared" ref="G199:G205" si="7">G198+$B$2</f>
+        <f t="shared" ref="G199:G205" si="3">G198+$B$2</f>
         <v>24.40000000000008</v>
       </c>
       <c r="H199" s="1">
-        <f t="shared" si="6"/>
+        <f>G199+$D$2</f>
         <v>24.450000000000081</v>
       </c>
     </row>
@@ -3107,11 +3127,11 @@
         <v>195</v>
       </c>
       <c r="G200" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>24.500000000000082</v>
       </c>
       <c r="H200" s="1">
-        <f t="shared" si="6"/>
+        <f>G200+$D$2</f>
         <v>24.550000000000082</v>
       </c>
     </row>
@@ -3120,11 +3140,11 @@
         <v>196</v>
       </c>
       <c r="G201" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>24.600000000000083</v>
       </c>
       <c r="H201" s="1">
-        <f t="shared" si="6"/>
+        <f>G201+$D$2</f>
         <v>24.650000000000084</v>
       </c>
     </row>
@@ -3133,11 +3153,11 @@
         <v>197</v>
       </c>
       <c r="G202" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>24.700000000000085</v>
       </c>
       <c r="H202" s="1">
-        <f t="shared" si="6"/>
+        <f>G202+$D$2</f>
         <v>24.750000000000085</v>
       </c>
     </row>
@@ -3146,11 +3166,11 @@
         <v>198</v>
       </c>
       <c r="G203" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>24.800000000000086</v>
       </c>
       <c r="H203" s="1">
-        <f t="shared" si="6"/>
+        <f>G203+$D$2</f>
         <v>24.850000000000087</v>
       </c>
     </row>
@@ -3159,11 +3179,11 @@
         <v>199</v>
       </c>
       <c r="G204" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>24.900000000000087</v>
       </c>
       <c r="H204" s="1">
-        <f t="shared" si="6"/>
+        <f>G204+$D$2</f>
         <v>24.950000000000088</v>
       </c>
     </row>
@@ -3172,11 +3192,11 @@
         <v>200</v>
       </c>
       <c r="G205" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>25.000000000000089</v>
       </c>
       <c r="H205" s="1">
-        <f t="shared" si="6"/>
+        <f>G205+$D$2</f>
         <v>25.05000000000009</v>
       </c>
     </row>

--- a/podshibakin/03.11.23.xlsx
+++ b/podshibakin/03.11.23.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k221-19\Documents\41МР\попов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC506208-457F-47CB-B4DD-FD27CC8FEBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4187CE-022C-4EC7-8353-87D8FA191D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81DAC5D5-C87F-4C3C-9945-5DF73BB22143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81DAC5D5-C87F-4C3C-9945-5DF73BB22143}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>x0</t>
   </si>
@@ -101,13 +102,38 @@
   <si>
     <t>z1</t>
   </si>
+  <si>
+    <t>z=y'</t>
+  </si>
+  <si>
+    <t>z'=zx^2+xy'+5</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>y'0</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>l3</t>
+  </si>
+  <si>
+    <t>l4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,9 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -465,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055606B-038D-4B64-8E55-3402C030A389}">
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <f>G5+$D$2</f>
+        <f t="shared" ref="H5:H68" si="0">G5+$D$2</f>
         <v>5.05</v>
       </c>
       <c r="I5" s="1">
@@ -609,7 +637,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H6" s="1">
-        <f>G6+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.1499999999999995</v>
       </c>
     </row>
@@ -618,12 +646,15 @@
         <v>2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G70" si="0">G6+$B$2</f>
+        <f t="shared" ref="G7:G70" si="1">G6+$B$2</f>
         <v>5.1999999999999993</v>
       </c>
       <c r="H7" s="1">
-        <f>G7+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.2499999999999991</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -631,12 +662,15 @@
         <v>3</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2999999999999989</v>
       </c>
       <c r="H8" s="1">
-        <f>G8+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.3499999999999988</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -644,11 +678,11 @@
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="H9" s="1">
-        <f>G9+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.4499999999999984</v>
       </c>
     </row>
@@ -657,11 +691,11 @@
         <v>5</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4999999999999982</v>
       </c>
       <c r="H10" s="1">
-        <f>G10+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.549999999999998</v>
       </c>
     </row>
@@ -670,11 +704,11 @@
         <v>6</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5999999999999979</v>
       </c>
       <c r="H11" s="1">
-        <f>G11+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.6499999999999977</v>
       </c>
     </row>
@@ -683,11 +717,11 @@
         <v>7</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6999999999999975</v>
       </c>
       <c r="H12" s="1">
-        <f>G12+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.7499999999999973</v>
       </c>
     </row>
@@ -696,11 +730,11 @@
         <v>8</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7999999999999972</v>
       </c>
       <c r="H13" s="1">
-        <f>G13+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.849999999999997</v>
       </c>
     </row>
@@ -709,11 +743,11 @@
         <v>9</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8999999999999968</v>
       </c>
       <c r="H14" s="1">
-        <f>G14+$D$2</f>
+        <f t="shared" si="0"/>
         <v>5.9499999999999966</v>
       </c>
     </row>
@@ -722,11 +756,11 @@
         <v>10</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9999999999999964</v>
       </c>
       <c r="H15" s="1">
-        <f>G15+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.0499999999999963</v>
       </c>
     </row>
@@ -735,11 +769,11 @@
         <v>11</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0999999999999961</v>
       </c>
       <c r="H16" s="1">
-        <f>G16+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.1499999999999959</v>
       </c>
     </row>
@@ -748,11 +782,11 @@
         <v>12</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1999999999999957</v>
       </c>
       <c r="H17" s="1">
-        <f>G17+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.2499999999999956</v>
       </c>
     </row>
@@ -761,11 +795,11 @@
         <v>13</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2999999999999954</v>
       </c>
       <c r="H18" s="1">
-        <f>G18+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.3499999999999952</v>
       </c>
     </row>
@@ -774,11 +808,11 @@
         <v>14</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.399999999999995</v>
       </c>
       <c r="H19" s="1">
-        <f>G19+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.4499999999999948</v>
       </c>
     </row>
@@ -787,11 +821,11 @@
         <v>15</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4999999999999947</v>
       </c>
       <c r="H20" s="1">
-        <f>G20+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.5499999999999945</v>
       </c>
     </row>
@@ -800,11 +834,11 @@
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="H21" s="1">
-        <f>G21+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.6499999999999941</v>
       </c>
     </row>
@@ -813,11 +847,11 @@
         <v>17</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.699999999999994</v>
       </c>
       <c r="H22" s="1">
-        <f>G22+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.7499999999999938</v>
       </c>
     </row>
@@ -826,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7999999999999936</v>
       </c>
       <c r="H23" s="1">
-        <f>G23+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.8499999999999934</v>
       </c>
     </row>
@@ -839,11 +873,11 @@
         <v>19</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8999999999999932</v>
       </c>
       <c r="H24" s="1">
-        <f>G24+$D$2</f>
+        <f t="shared" si="0"/>
         <v>6.9499999999999931</v>
       </c>
     </row>
@@ -852,11 +886,11 @@
         <v>20</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9999999999999929</v>
       </c>
       <c r="H25" s="1">
-        <f>G25+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.0499999999999927</v>
       </c>
     </row>
@@ -865,11 +899,11 @@
         <v>21</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0999999999999925</v>
       </c>
       <c r="H26" s="1">
-        <f>G26+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.1499999999999924</v>
       </c>
     </row>
@@ -878,11 +912,11 @@
         <v>22</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1999999999999922</v>
       </c>
       <c r="H27" s="1">
-        <f>G27+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.249999999999992</v>
       </c>
     </row>
@@ -891,11 +925,11 @@
         <v>23</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2999999999999918</v>
       </c>
       <c r="H28" s="1">
-        <f>G28+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.3499999999999917</v>
       </c>
     </row>
@@ -904,11 +938,11 @@
         <v>24</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3999999999999915</v>
       </c>
       <c r="H29" s="1">
-        <f>G29+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.4499999999999913</v>
       </c>
     </row>
@@ -917,11 +951,11 @@
         <v>25</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4999999999999911</v>
       </c>
       <c r="H30" s="1">
-        <f>G30+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.5499999999999909</v>
       </c>
     </row>
@@ -930,11 +964,11 @@
         <v>26</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5999999999999908</v>
       </c>
       <c r="H31" s="1">
-        <f>G31+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.6499999999999906</v>
       </c>
     </row>
@@ -943,11 +977,11 @@
         <v>27</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6999999999999904</v>
       </c>
       <c r="H32" s="1">
-        <f>G32+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.7499999999999902</v>
       </c>
     </row>
@@ -956,11 +990,11 @@
         <v>28</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7999999999999901</v>
       </c>
       <c r="H33" s="1">
-        <f>G33+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.8499999999999899</v>
       </c>
     </row>
@@ -969,11 +1003,11 @@
         <v>29</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8999999999999897</v>
       </c>
       <c r="H34" s="1">
-        <f>G34+$D$2</f>
+        <f t="shared" si="0"/>
         <v>7.9499999999999895</v>
       </c>
     </row>
@@ -982,11 +1016,11 @@
         <v>30</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9999999999999893</v>
       </c>
       <c r="H35" s="1">
-        <f>G35+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.0499999999999901</v>
       </c>
     </row>
@@ -995,11 +1029,11 @@
         <v>31</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.099999999999989</v>
       </c>
       <c r="H36" s="1">
-        <f>G36+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.1499999999999897</v>
       </c>
     </row>
@@ -1008,11 +1042,11 @@
         <v>32</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1999999999999886</v>
       </c>
       <c r="H37" s="1">
-        <f>G37+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.2499999999999893</v>
       </c>
     </row>
@@ -1021,11 +1055,11 @@
         <v>33</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2999999999999883</v>
       </c>
       <c r="H38" s="1">
-        <f>G38+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.349999999999989</v>
       </c>
     </row>
@@ -1034,11 +1068,11 @@
         <v>34</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3999999999999879</v>
       </c>
       <c r="H39" s="1">
-        <f>G39+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.4499999999999886</v>
       </c>
     </row>
@@ -1047,11 +1081,11 @@
         <v>35</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4999999999999876</v>
       </c>
       <c r="H40" s="1">
-        <f>G40+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.5499999999999883</v>
       </c>
     </row>
@@ -1060,11 +1094,11 @@
         <v>36</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5999999999999872</v>
       </c>
       <c r="H41" s="1">
-        <f>G41+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.6499999999999879</v>
       </c>
     </row>
@@ -1073,11 +1107,11 @@
         <v>37</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6999999999999869</v>
       </c>
       <c r="H42" s="1">
-        <f>G42+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.7499999999999876</v>
       </c>
     </row>
@@ -1086,11 +1120,11 @@
         <v>38</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7999999999999865</v>
       </c>
       <c r="H43" s="1">
-        <f>G43+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.8499999999999872</v>
       </c>
     </row>
@@ -1099,11 +1133,11 @@
         <v>39</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8999999999999861</v>
       </c>
       <c r="H44" s="1">
-        <f>G44+$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.9499999999999869</v>
       </c>
     </row>
@@ -1112,11 +1146,11 @@
         <v>40</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9999999999999858</v>
       </c>
       <c r="H45" s="1">
-        <f>G45+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.0499999999999865</v>
       </c>
     </row>
@@ -1125,11 +1159,11 @@
         <v>41</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0999999999999854</v>
       </c>
       <c r="H46" s="1">
-        <f>G46+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.1499999999999861</v>
       </c>
     </row>
@@ -1138,11 +1172,11 @@
         <v>42</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1999999999999851</v>
       </c>
       <c r="H47" s="1">
-        <f>G47+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.2499999999999858</v>
       </c>
     </row>
@@ -1151,11 +1185,11 @@
         <v>43</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2999999999999847</v>
       </c>
       <c r="H48" s="1">
-        <f>G48+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.3499999999999854</v>
       </c>
     </row>
@@ -1164,11 +1198,11 @@
         <v>44</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3999999999999844</v>
       </c>
       <c r="H49" s="1">
-        <f>G49+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.4499999999999851</v>
       </c>
     </row>
@@ -1177,11 +1211,11 @@
         <v>45</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.499999999999984</v>
       </c>
       <c r="H50" s="1">
-        <f>G50+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.5499999999999847</v>
       </c>
     </row>
@@ -1190,11 +1224,11 @@
         <v>46</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5999999999999837</v>
       </c>
       <c r="H51" s="1">
-        <f>G51+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.6499999999999844</v>
       </c>
     </row>
@@ -1203,11 +1237,11 @@
         <v>47</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6999999999999833</v>
       </c>
       <c r="H52" s="1">
-        <f>G52+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.749999999999984</v>
       </c>
     </row>
@@ -1216,11 +1250,11 @@
         <v>48</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7999999999999829</v>
       </c>
       <c r="H53" s="1">
-        <f>G53+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.8499999999999837</v>
       </c>
     </row>
@@ -1229,11 +1263,11 @@
         <v>49</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8999999999999826</v>
       </c>
       <c r="H54" s="1">
-        <f>G54+$D$2</f>
+        <f t="shared" si="0"/>
         <v>9.9499999999999833</v>
       </c>
     </row>
@@ -1242,11 +1276,11 @@
         <v>50</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999822</v>
       </c>
       <c r="H55" s="1">
-        <f>G55+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.049999999999983</v>
       </c>
     </row>
@@ -1255,11 +1289,11 @@
         <v>51</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.099999999999982</v>
       </c>
       <c r="H56" s="1">
-        <f>G56+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.149999999999983</v>
       </c>
     </row>
@@ -1268,11 +1302,11 @@
         <v>52</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.199999999999982</v>
       </c>
       <c r="H57" s="1">
-        <f>G57+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.249999999999982</v>
       </c>
     </row>
@@ -1281,11 +1315,11 @@
         <v>53</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.299999999999981</v>
       </c>
       <c r="H58" s="1">
-        <f>G58+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.349999999999982</v>
       </c>
     </row>
@@ -1294,11 +1328,11 @@
         <v>54</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.399999999999981</v>
       </c>
       <c r="H59" s="1">
-        <f>G59+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.449999999999982</v>
       </c>
     </row>
@@ -1307,11 +1341,11 @@
         <v>55</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.49999999999998</v>
       </c>
       <c r="H60" s="1">
-        <f>G60+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.549999999999981</v>
       </c>
     </row>
@@ -1320,11 +1354,11 @@
         <v>56</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.59999999999998</v>
       </c>
       <c r="H61" s="1">
-        <f>G61+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.649999999999981</v>
       </c>
     </row>
@@ -1333,11 +1367,11 @@
         <v>57</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.69999999999998</v>
       </c>
       <c r="H62" s="1">
-        <f>G62+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.74999999999998</v>
       </c>
     </row>
@@ -1346,11 +1380,11 @@
         <v>58</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.799999999999979</v>
       </c>
       <c r="H63" s="1">
-        <f>G63+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.84999999999998</v>
       </c>
     </row>
@@ -1359,11 +1393,11 @@
         <v>59</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.899999999999979</v>
       </c>
       <c r="H64" s="1">
-        <f>G64+$D$2</f>
+        <f t="shared" si="0"/>
         <v>10.94999999999998</v>
       </c>
     </row>
@@ -1372,11 +1406,11 @@
         <v>60</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.999999999999979</v>
       </c>
       <c r="H65" s="1">
-        <f>G65+$D$2</f>
+        <f t="shared" si="0"/>
         <v>11.049999999999979</v>
       </c>
     </row>
@@ -1385,11 +1419,11 @@
         <v>61</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.099999999999978</v>
       </c>
       <c r="H66" s="1">
-        <f>G66+$D$2</f>
+        <f t="shared" si="0"/>
         <v>11.149999999999979</v>
       </c>
     </row>
@@ -1398,11 +1432,11 @@
         <v>62</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.199999999999978</v>
       </c>
       <c r="H67" s="1">
-        <f>G67+$D$2</f>
+        <f t="shared" si="0"/>
         <v>11.249999999999979</v>
       </c>
     </row>
@@ -1411,11 +1445,11 @@
         <v>63</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.299999999999978</v>
       </c>
       <c r="H68" s="1">
-        <f>G68+$D$2</f>
+        <f t="shared" si="0"/>
         <v>11.349999999999978</v>
       </c>
     </row>
@@ -1424,11 +1458,11 @@
         <v>64</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.399999999999977</v>
       </c>
       <c r="H69" s="1">
-        <f>G69+$D$2</f>
+        <f t="shared" ref="H69:H132" si="2">G69+$D$2</f>
         <v>11.449999999999978</v>
       </c>
     </row>
@@ -1437,11 +1471,11 @@
         <v>65</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.499999999999977</v>
       </c>
       <c r="H70" s="1">
-        <f>G70+$D$2</f>
+        <f t="shared" si="2"/>
         <v>11.549999999999978</v>
       </c>
     </row>
@@ -1450,11 +1484,11 @@
         <v>66</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" ref="G71:G134" si="1">G70+$B$2</f>
+        <f t="shared" ref="G71:G134" si="3">G70+$B$2</f>
         <v>11.599999999999977</v>
       </c>
       <c r="H71" s="1">
-        <f>G71+$D$2</f>
+        <f t="shared" si="2"/>
         <v>11.649999999999977</v>
       </c>
     </row>
@@ -1463,11 +1497,11 @@
         <v>67</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.699999999999976</v>
       </c>
       <c r="H72" s="1">
-        <f>G72+$D$2</f>
+        <f t="shared" si="2"/>
         <v>11.749999999999977</v>
       </c>
     </row>
@@ -1476,11 +1510,11 @@
         <v>68</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.799999999999976</v>
       </c>
       <c r="H73" s="1">
-        <f>G73+$D$2</f>
+        <f t="shared" si="2"/>
         <v>11.849999999999977</v>
       </c>
     </row>
@@ -1489,11 +1523,11 @@
         <v>69</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.899999999999975</v>
       </c>
       <c r="H74" s="1">
-        <f>G74+$D$2</f>
+        <f t="shared" si="2"/>
         <v>11.949999999999976</v>
       </c>
     </row>
@@ -1502,11 +1536,11 @@
         <v>70</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.999999999999975</v>
       </c>
       <c r="H75" s="1">
-        <f>G75+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.049999999999976</v>
       </c>
     </row>
@@ -1515,11 +1549,11 @@
         <v>71</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.099999999999975</v>
       </c>
       <c r="H76" s="1">
-        <f>G76+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.149999999999975</v>
       </c>
     </row>
@@ -1528,11 +1562,11 @@
         <v>72</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.199999999999974</v>
       </c>
       <c r="H77" s="1">
-        <f>G77+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.249999999999975</v>
       </c>
     </row>
@@ -1541,11 +1575,11 @@
         <v>73</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.299999999999974</v>
       </c>
       <c r="H78" s="1">
-        <f>G78+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.349999999999975</v>
       </c>
     </row>
@@ -1554,11 +1588,11 @@
         <v>74</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.399999999999974</v>
       </c>
       <c r="H79" s="1">
-        <f>G79+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.449999999999974</v>
       </c>
     </row>
@@ -1567,11 +1601,11 @@
         <v>75</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.499999999999973</v>
       </c>
       <c r="H80" s="1">
-        <f>G80+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.549999999999974</v>
       </c>
     </row>
@@ -1580,11 +1614,11 @@
         <v>76</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.599999999999973</v>
       </c>
       <c r="H81" s="1">
-        <f>G81+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.649999999999974</v>
       </c>
     </row>
@@ -1593,11 +1627,11 @@
         <v>77</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.699999999999973</v>
       </c>
       <c r="H82" s="1">
-        <f>G82+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.749999999999973</v>
       </c>
     </row>
@@ -1606,11 +1640,11 @@
         <v>78</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.799999999999972</v>
       </c>
       <c r="H83" s="1">
-        <f>G83+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.849999999999973</v>
       </c>
     </row>
@@ -1619,11 +1653,11 @@
         <v>79</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.899999999999972</v>
       </c>
       <c r="H84" s="1">
-        <f>G84+$D$2</f>
+        <f t="shared" si="2"/>
         <v>12.949999999999973</v>
       </c>
     </row>
@@ -1632,11 +1666,11 @@
         <v>80</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.999999999999972</v>
       </c>
       <c r="H85" s="1">
-        <f>G85+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.049999999999972</v>
       </c>
     </row>
@@ -1645,11 +1679,11 @@
         <v>81</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.099999999999971</v>
       </c>
       <c r="H86" s="1">
-        <f>G86+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.149999999999972</v>
       </c>
     </row>
@@ -1658,11 +1692,11 @@
         <v>82</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.199999999999971</v>
       </c>
       <c r="H87" s="1">
-        <f>G87+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.249999999999972</v>
       </c>
     </row>
@@ -1671,11 +1705,11 @@
         <v>83</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.299999999999971</v>
       </c>
       <c r="H88" s="1">
-        <f>G88+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.349999999999971</v>
       </c>
     </row>
@@ -1684,11 +1718,11 @@
         <v>84</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.39999999999997</v>
       </c>
       <c r="H89" s="1">
-        <f>G89+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.449999999999971</v>
       </c>
     </row>
@@ -1697,11 +1731,11 @@
         <v>85</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.49999999999997</v>
       </c>
       <c r="H90" s="1">
-        <f>G90+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.549999999999971</v>
       </c>
     </row>
@@ -1710,11 +1744,11 @@
         <v>86</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.599999999999969</v>
       </c>
       <c r="H91" s="1">
-        <f>G91+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.64999999999997</v>
       </c>
     </row>
@@ -1723,11 +1757,11 @@
         <v>87</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.699999999999969</v>
       </c>
       <c r="H92" s="1">
-        <f>G92+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.74999999999997</v>
       </c>
     </row>
@@ -1736,11 +1770,11 @@
         <v>88</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.799999999999969</v>
       </c>
       <c r="H93" s="1">
-        <f>G93+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.849999999999969</v>
       </c>
     </row>
@@ -1749,11 +1783,11 @@
         <v>89</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.899999999999968</v>
       </c>
       <c r="H94" s="1">
-        <f>G94+$D$2</f>
+        <f t="shared" si="2"/>
         <v>13.949999999999969</v>
       </c>
     </row>
@@ -1762,11 +1796,11 @@
         <v>90</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.999999999999968</v>
       </c>
       <c r="H95" s="1">
-        <f>G95+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.049999999999969</v>
       </c>
     </row>
@@ -1775,11 +1809,11 @@
         <v>91</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.099999999999968</v>
       </c>
       <c r="H96" s="1">
-        <f>G96+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.149999999999968</v>
       </c>
     </row>
@@ -1788,11 +1822,11 @@
         <v>92</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.199999999999967</v>
       </c>
       <c r="H97" s="1">
-        <f>G97+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.249999999999968</v>
       </c>
     </row>
@@ -1801,11 +1835,11 @@
         <v>93</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.299999999999967</v>
       </c>
       <c r="H98" s="1">
-        <f>G98+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.349999999999968</v>
       </c>
     </row>
@@ -1814,11 +1848,11 @@
         <v>94</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.399999999999967</v>
       </c>
       <c r="H99" s="1">
-        <f>G99+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.449999999999967</v>
       </c>
     </row>
@@ -1827,11 +1861,11 @@
         <v>95</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.499999999999966</v>
       </c>
       <c r="H100" s="1">
-        <f>G100+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.549999999999967</v>
       </c>
     </row>
@@ -1840,11 +1874,11 @@
         <v>96</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.599999999999966</v>
       </c>
       <c r="H101" s="1">
-        <f>G101+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.649999999999967</v>
       </c>
     </row>
@@ -1853,11 +1887,11 @@
         <v>97</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.699999999999966</v>
       </c>
       <c r="H102" s="1">
-        <f>G102+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.749999999999966</v>
       </c>
     </row>
@@ -1866,11 +1900,11 @@
         <v>98</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.799999999999965</v>
       </c>
       <c r="H103" s="1">
-        <f>G103+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.849999999999966</v>
       </c>
     </row>
@@ -1879,11 +1913,11 @@
         <v>99</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.899999999999965</v>
       </c>
       <c r="H104" s="1">
-        <f>G104+$D$2</f>
+        <f t="shared" si="2"/>
         <v>14.949999999999966</v>
       </c>
     </row>
@@ -1892,11 +1926,11 @@
         <v>100</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.999999999999964</v>
       </c>
       <c r="H105" s="1">
-        <f>G105+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.049999999999965</v>
       </c>
     </row>
@@ -1905,11 +1939,11 @@
         <v>101</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.099999999999964</v>
       </c>
       <c r="H106" s="1">
-        <f>G106+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.149999999999965</v>
       </c>
     </row>
@@ -1918,11 +1952,11 @@
         <v>102</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.199999999999964</v>
       </c>
       <c r="H107" s="1">
-        <f>G107+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.249999999999964</v>
       </c>
     </row>
@@ -1931,11 +1965,11 @@
         <v>103</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.299999999999963</v>
       </c>
       <c r="H108" s="1">
-        <f>G108+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.349999999999964</v>
       </c>
     </row>
@@ -1944,11 +1978,11 @@
         <v>104</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.399999999999963</v>
       </c>
       <c r="H109" s="1">
-        <f>G109+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.449999999999964</v>
       </c>
     </row>
@@ -1957,11 +1991,11 @@
         <v>105</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.499999999999963</v>
       </c>
       <c r="H110" s="1">
-        <f>G110+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.549999999999963</v>
       </c>
     </row>
@@ -1970,11 +2004,11 @@
         <v>106</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.599999999999962</v>
       </c>
       <c r="H111" s="1">
-        <f>G111+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.649999999999963</v>
       </c>
     </row>
@@ -1983,11 +2017,11 @@
         <v>107</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.699999999999962</v>
       </c>
       <c r="H112" s="1">
-        <f>G112+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.749999999999963</v>
       </c>
     </row>
@@ -1996,11 +2030,11 @@
         <v>108</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.799999999999962</v>
       </c>
       <c r="H113" s="1">
-        <f>G113+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.849999999999962</v>
       </c>
     </row>
@@ -2009,11 +2043,11 @@
         <v>109</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.899999999999961</v>
       </c>
       <c r="H114" s="1">
-        <f>G114+$D$2</f>
+        <f t="shared" si="2"/>
         <v>15.949999999999962</v>
       </c>
     </row>
@@ -2022,11 +2056,11 @@
         <v>110</v>
       </c>
       <c r="G115" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15.999999999999961</v>
       </c>
       <c r="H115" s="1">
-        <f>G115+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.049999999999962</v>
       </c>
     </row>
@@ -2035,11 +2069,11 @@
         <v>111</v>
       </c>
       <c r="G116" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.099999999999962</v>
       </c>
       <c r="H116" s="1">
-        <f>G116+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.149999999999963</v>
       </c>
     </row>
@@ -2048,11 +2082,11 @@
         <v>112</v>
       </c>
       <c r="G117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.199999999999964</v>
       </c>
       <c r="H117" s="1">
-        <f>G117+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.249999999999964</v>
       </c>
     </row>
@@ -2061,11 +2095,11 @@
         <v>113</v>
       </c>
       <c r="G118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.299999999999965</v>
       </c>
       <c r="H118" s="1">
-        <f>G118+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.349999999999966</v>
       </c>
     </row>
@@ -2074,11 +2108,11 @@
         <v>114</v>
       </c>
       <c r="G119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.399999999999967</v>
       </c>
       <c r="H119" s="1">
-        <f>G119+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.449999999999967</v>
       </c>
     </row>
@@ -2087,11 +2121,11 @@
         <v>115</v>
       </c>
       <c r="G120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.499999999999968</v>
       </c>
       <c r="H120" s="1">
-        <f>G120+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.549999999999969</v>
       </c>
     </row>
@@ -2100,11 +2134,11 @@
         <v>116</v>
       </c>
       <c r="G121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.599999999999969</v>
       </c>
       <c r="H121" s="1">
-        <f>G121+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.64999999999997</v>
       </c>
     </row>
@@ -2113,11 +2147,11 @@
         <v>117</v>
       </c>
       <c r="G122" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.699999999999971</v>
       </c>
       <c r="H122" s="1">
-        <f>G122+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.749999999999972</v>
       </c>
     </row>
@@ -2126,11 +2160,11 @@
         <v>118</v>
       </c>
       <c r="G123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.799999999999972</v>
       </c>
       <c r="H123" s="1">
-        <f>G123+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.849999999999973</v>
       </c>
     </row>
@@ -2139,11 +2173,11 @@
         <v>119</v>
       </c>
       <c r="G124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.899999999999974</v>
       </c>
       <c r="H124" s="1">
-        <f>G124+$D$2</f>
+        <f t="shared" si="2"/>
         <v>16.949999999999974</v>
       </c>
     </row>
@@ -2152,11 +2186,11 @@
         <v>120</v>
       </c>
       <c r="G125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.999999999999975</v>
       </c>
       <c r="H125" s="1">
-        <f>G125+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.049999999999976</v>
       </c>
     </row>
@@ -2165,11 +2199,11 @@
         <v>121</v>
       </c>
       <c r="G126" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.099999999999977</v>
       </c>
       <c r="H126" s="1">
-        <f>G126+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.149999999999977</v>
       </c>
     </row>
@@ -2178,11 +2212,11 @@
         <v>122</v>
       </c>
       <c r="G127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.199999999999978</v>
       </c>
       <c r="H127" s="1">
-        <f>G127+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.249999999999979</v>
       </c>
     </row>
@@ -2191,11 +2225,11 @@
         <v>123</v>
       </c>
       <c r="G128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.299999999999979</v>
       </c>
       <c r="H128" s="1">
-        <f>G128+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.34999999999998</v>
       </c>
     </row>
@@ -2204,11 +2238,11 @@
         <v>124</v>
       </c>
       <c r="G129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.399999999999981</v>
       </c>
       <c r="H129" s="1">
-        <f>G129+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.449999999999982</v>
       </c>
     </row>
@@ -2217,11 +2251,11 @@
         <v>125</v>
       </c>
       <c r="G130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.499999999999982</v>
       </c>
       <c r="H130" s="1">
-        <f>G130+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.549999999999983</v>
       </c>
     </row>
@@ -2230,11 +2264,11 @@
         <v>126</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.599999999999984</v>
       </c>
       <c r="H131" s="1">
-        <f>G131+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.649999999999984</v>
       </c>
     </row>
@@ -2243,11 +2277,11 @@
         <v>127</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.699999999999985</v>
       </c>
       <c r="H132" s="1">
-        <f>G132+$D$2</f>
+        <f t="shared" si="2"/>
         <v>17.749999999999986</v>
       </c>
     </row>
@@ -2256,11 +2290,11 @@
         <v>128</v>
       </c>
       <c r="G133" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.799999999999986</v>
       </c>
       <c r="H133" s="1">
-        <f>G133+$D$2</f>
+        <f t="shared" ref="H133:H196" si="4">G133+$D$2</f>
         <v>17.849999999999987</v>
       </c>
     </row>
@@ -2269,11 +2303,11 @@
         <v>129</v>
       </c>
       <c r="G134" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17.899999999999988</v>
       </c>
       <c r="H134" s="1">
-        <f>G134+$D$2</f>
+        <f t="shared" si="4"/>
         <v>17.949999999999989</v>
       </c>
     </row>
@@ -2282,11 +2316,11 @@
         <v>130</v>
       </c>
       <c r="G135" s="1">
-        <f t="shared" ref="G135:G198" si="2">G134+$B$2</f>
+        <f t="shared" ref="G135:G198" si="5">G134+$B$2</f>
         <v>17.999999999999989</v>
       </c>
       <c r="H135" s="1">
-        <f>G135+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.04999999999999</v>
       </c>
     </row>
@@ -2295,11 +2329,11 @@
         <v>131</v>
       </c>
       <c r="G136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.099999999999991</v>
       </c>
       <c r="H136" s="1">
-        <f>G136+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.149999999999991</v>
       </c>
     </row>
@@ -2308,11 +2342,11 @@
         <v>132</v>
       </c>
       <c r="G137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.199999999999992</v>
       </c>
       <c r="H137" s="1">
-        <f>G137+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.249999999999993</v>
       </c>
     </row>
@@ -2321,11 +2355,11 @@
         <v>133</v>
       </c>
       <c r="G138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.299999999999994</v>
       </c>
       <c r="H138" s="1">
-        <f>G138+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.349999999999994</v>
       </c>
     </row>
@@ -2334,11 +2368,11 @@
         <v>134</v>
       </c>
       <c r="G139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.399999999999995</v>
       </c>
       <c r="H139" s="1">
-        <f>G139+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.449999999999996</v>
       </c>
     </row>
@@ -2347,11 +2381,11 @@
         <v>135</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.499999999999996</v>
       </c>
       <c r="H140" s="1">
-        <f>G140+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.549999999999997</v>
       </c>
     </row>
@@ -2360,11 +2394,11 @@
         <v>136</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.599999999999998</v>
       </c>
       <c r="H141" s="1">
-        <f>G141+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.649999999999999</v>
       </c>
     </row>
@@ -2373,11 +2407,11 @@
         <v>137</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.7</v>
       </c>
       <c r="H142" s="1">
-        <f>G142+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.75</v>
       </c>
     </row>
@@ -2386,11 +2420,11 @@
         <v>138</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.8</v>
       </c>
       <c r="H143" s="1">
-        <f>G143+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.850000000000001</v>
       </c>
     </row>
@@ -2399,11 +2433,11 @@
         <v>139</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18.900000000000002</v>
       </c>
       <c r="H144" s="1">
-        <f>G144+$D$2</f>
+        <f t="shared" si="4"/>
         <v>18.950000000000003</v>
       </c>
     </row>
@@ -2412,11 +2446,11 @@
         <v>140</v>
       </c>
       <c r="G145" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.000000000000004</v>
       </c>
       <c r="H145" s="1">
-        <f>G145+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.050000000000004</v>
       </c>
     </row>
@@ -2425,11 +2459,11 @@
         <v>141</v>
       </c>
       <c r="G146" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.100000000000005</v>
       </c>
       <c r="H146" s="1">
-        <f>G146+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.150000000000006</v>
       </c>
     </row>
@@ -2438,11 +2472,11 @@
         <v>142</v>
       </c>
       <c r="G147" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.200000000000006</v>
       </c>
       <c r="H147" s="1">
-        <f>G147+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.250000000000007</v>
       </c>
     </row>
@@ -2451,11 +2485,11 @@
         <v>143</v>
       </c>
       <c r="G148" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.300000000000008</v>
       </c>
       <c r="H148" s="1">
-        <f>G148+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.350000000000009</v>
       </c>
     </row>
@@ -2464,11 +2498,11 @@
         <v>144</v>
       </c>
       <c r="G149" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.400000000000009</v>
       </c>
       <c r="H149" s="1">
-        <f>G149+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.45000000000001</v>
       </c>
     </row>
@@ -2477,11 +2511,11 @@
         <v>145</v>
       </c>
       <c r="G150" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.500000000000011</v>
       </c>
       <c r="H150" s="1">
-        <f>G150+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.550000000000011</v>
       </c>
     </row>
@@ -2490,11 +2524,11 @@
         <v>146</v>
       </c>
       <c r="G151" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.600000000000012</v>
       </c>
       <c r="H151" s="1">
-        <f>G151+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.650000000000013</v>
       </c>
     </row>
@@ -2503,11 +2537,11 @@
         <v>147</v>
       </c>
       <c r="G152" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.700000000000014</v>
       </c>
       <c r="H152" s="1">
-        <f>G152+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.750000000000014</v>
       </c>
     </row>
@@ -2516,11 +2550,11 @@
         <v>148</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.800000000000015</v>
       </c>
       <c r="H153" s="1">
-        <f>G153+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.850000000000016</v>
       </c>
     </row>
@@ -2529,11 +2563,11 @@
         <v>149</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19.900000000000016</v>
       </c>
       <c r="H154" s="1">
-        <f>G154+$D$2</f>
+        <f t="shared" si="4"/>
         <v>19.950000000000017</v>
       </c>
     </row>
@@ -2542,11 +2576,11 @@
         <v>150</v>
       </c>
       <c r="G155" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.000000000000018</v>
       </c>
       <c r="H155" s="1">
-        <f>G155+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.050000000000018</v>
       </c>
     </row>
@@ -2555,11 +2589,11 @@
         <v>151</v>
       </c>
       <c r="G156" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.100000000000019</v>
       </c>
       <c r="H156" s="1">
-        <f>G156+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.15000000000002</v>
       </c>
     </row>
@@ -2568,11 +2602,11 @@
         <v>152</v>
       </c>
       <c r="G157" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.200000000000021</v>
       </c>
       <c r="H157" s="1">
-        <f>G157+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.250000000000021</v>
       </c>
     </row>
@@ -2581,11 +2615,11 @@
         <v>153</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.300000000000022</v>
       </c>
       <c r="H158" s="1">
-        <f>G158+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.350000000000023</v>
       </c>
     </row>
@@ -2594,11 +2628,11 @@
         <v>154</v>
       </c>
       <c r="G159" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.400000000000023</v>
       </c>
       <c r="H159" s="1">
-        <f>G159+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.450000000000024</v>
       </c>
     </row>
@@ -2607,11 +2641,11 @@
         <v>155</v>
       </c>
       <c r="G160" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.500000000000025</v>
       </c>
       <c r="H160" s="1">
-        <f>G160+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.550000000000026</v>
       </c>
     </row>
@@ -2620,11 +2654,11 @@
         <v>156</v>
       </c>
       <c r="G161" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.600000000000026</v>
       </c>
       <c r="H161" s="1">
-        <f>G161+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.650000000000027</v>
       </c>
     </row>
@@ -2633,11 +2667,11 @@
         <v>157</v>
       </c>
       <c r="G162" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.700000000000028</v>
       </c>
       <c r="H162" s="1">
-        <f>G162+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.750000000000028</v>
       </c>
     </row>
@@ -2646,11 +2680,11 @@
         <v>158</v>
       </c>
       <c r="G163" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.800000000000029</v>
       </c>
       <c r="H163" s="1">
-        <f>G163+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.85000000000003</v>
       </c>
     </row>
@@ -2659,11 +2693,11 @@
         <v>159</v>
       </c>
       <c r="G164" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20.900000000000031</v>
       </c>
       <c r="H164" s="1">
-        <f>G164+$D$2</f>
+        <f t="shared" si="4"/>
         <v>20.950000000000031</v>
       </c>
     </row>
@@ -2672,11 +2706,11 @@
         <v>160</v>
       </c>
       <c r="G165" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.000000000000032</v>
       </c>
       <c r="H165" s="1">
-        <f>G165+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.050000000000033</v>
       </c>
     </row>
@@ -2685,11 +2719,11 @@
         <v>161</v>
       </c>
       <c r="G166" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.100000000000033</v>
       </c>
       <c r="H166" s="1">
-        <f>G166+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.150000000000034</v>
       </c>
     </row>
@@ -2698,11 +2732,11 @@
         <v>162</v>
       </c>
       <c r="G167" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.200000000000035</v>
       </c>
       <c r="H167" s="1">
-        <f>G167+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.250000000000036</v>
       </c>
     </row>
@@ -2711,11 +2745,11 @@
         <v>163</v>
       </c>
       <c r="G168" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.300000000000036</v>
       </c>
       <c r="H168" s="1">
-        <f>G168+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.350000000000037</v>
       </c>
     </row>
@@ -2724,11 +2758,11 @@
         <v>164</v>
       </c>
       <c r="G169" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.400000000000038</v>
       </c>
       <c r="H169" s="1">
-        <f>G169+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.450000000000038</v>
       </c>
     </row>
@@ -2737,11 +2771,11 @@
         <v>165</v>
       </c>
       <c r="G170" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.500000000000039</v>
       </c>
       <c r="H170" s="1">
-        <f>G170+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.55000000000004</v>
       </c>
     </row>
@@ -2750,11 +2784,11 @@
         <v>166</v>
       </c>
       <c r="G171" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.600000000000041</v>
       </c>
       <c r="H171" s="1">
-        <f>G171+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.650000000000041</v>
       </c>
     </row>
@@ -2763,11 +2797,11 @@
         <v>167</v>
       </c>
       <c r="G172" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.700000000000042</v>
       </c>
       <c r="H172" s="1">
-        <f>G172+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.750000000000043</v>
       </c>
     </row>
@@ -2776,11 +2810,11 @@
         <v>168</v>
       </c>
       <c r="G173" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.800000000000043</v>
       </c>
       <c r="H173" s="1">
-        <f>G173+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.850000000000044</v>
       </c>
     </row>
@@ -2789,11 +2823,11 @@
         <v>169</v>
       </c>
       <c r="G174" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21.900000000000045</v>
       </c>
       <c r="H174" s="1">
-        <f>G174+$D$2</f>
+        <f t="shared" si="4"/>
         <v>21.950000000000045</v>
       </c>
     </row>
@@ -2802,11 +2836,11 @@
         <v>170</v>
       </c>
       <c r="G175" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.000000000000046</v>
       </c>
       <c r="H175" s="1">
-        <f>G175+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.050000000000047</v>
       </c>
     </row>
@@ -2815,11 +2849,11 @@
         <v>171</v>
       </c>
       <c r="G176" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.100000000000048</v>
       </c>
       <c r="H176" s="1">
-        <f>G176+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.150000000000048</v>
       </c>
     </row>
@@ -2828,11 +2862,11 @@
         <v>172</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.200000000000049</v>
       </c>
       <c r="H177" s="1">
-        <f>G177+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.25000000000005</v>
       </c>
     </row>
@@ -2841,11 +2875,11 @@
         <v>173</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.30000000000005</v>
       </c>
       <c r="H178" s="1">
-        <f>G178+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.350000000000051</v>
       </c>
     </row>
@@ -2854,11 +2888,11 @@
         <v>174</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.400000000000052</v>
       </c>
       <c r="H179" s="1">
-        <f>G179+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.450000000000053</v>
       </c>
     </row>
@@ -2867,11 +2901,11 @@
         <v>175</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.500000000000053</v>
       </c>
       <c r="H180" s="1">
-        <f>G180+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.550000000000054</v>
       </c>
     </row>
@@ -2880,11 +2914,11 @@
         <v>176</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.600000000000055</v>
       </c>
       <c r="H181" s="1">
-        <f>G181+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.650000000000055</v>
       </c>
     </row>
@@ -2893,11 +2927,11 @@
         <v>177</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.700000000000056</v>
       </c>
       <c r="H182" s="1">
-        <f>G182+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.750000000000057</v>
       </c>
     </row>
@@ -2906,11 +2940,11 @@
         <v>178</v>
       </c>
       <c r="G183" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.800000000000058</v>
       </c>
       <c r="H183" s="1">
-        <f>G183+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.850000000000058</v>
       </c>
     </row>
@@ -2919,11 +2953,11 @@
         <v>179</v>
       </c>
       <c r="G184" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.900000000000059</v>
       </c>
       <c r="H184" s="1">
-        <f>G184+$D$2</f>
+        <f t="shared" si="4"/>
         <v>22.95000000000006</v>
       </c>
     </row>
@@ -2932,11 +2966,11 @@
         <v>180</v>
       </c>
       <c r="G185" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.00000000000006</v>
       </c>
       <c r="H185" s="1">
-        <f>G185+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.050000000000061</v>
       </c>
     </row>
@@ -2945,11 +2979,11 @@
         <v>181</v>
       </c>
       <c r="G186" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.100000000000062</v>
       </c>
       <c r="H186" s="1">
-        <f>G186+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.150000000000063</v>
       </c>
     </row>
@@ -2958,11 +2992,11 @@
         <v>182</v>
       </c>
       <c r="G187" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.200000000000063</v>
       </c>
       <c r="H187" s="1">
-        <f>G187+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.250000000000064</v>
       </c>
     </row>
@@ -2971,11 +3005,11 @@
         <v>183</v>
       </c>
       <c r="G188" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.300000000000065</v>
       </c>
       <c r="H188" s="1">
-        <f>G188+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.350000000000065</v>
       </c>
     </row>
@@ -2984,11 +3018,11 @@
         <v>184</v>
       </c>
       <c r="G189" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.400000000000066</v>
       </c>
       <c r="H189" s="1">
-        <f>G189+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.450000000000067</v>
       </c>
     </row>
@@ -2997,11 +3031,11 @@
         <v>185</v>
       </c>
       <c r="G190" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.500000000000068</v>
       </c>
       <c r="H190" s="1">
-        <f>G190+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.550000000000068</v>
       </c>
     </row>
@@ -3010,11 +3044,11 @@
         <v>186</v>
       </c>
       <c r="G191" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.600000000000069</v>
       </c>
       <c r="H191" s="1">
-        <f>G191+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.65000000000007</v>
       </c>
     </row>
@@ -3023,11 +3057,11 @@
         <v>187</v>
       </c>
       <c r="G192" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.70000000000007</v>
       </c>
       <c r="H192" s="1">
-        <f>G192+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.750000000000071</v>
       </c>
     </row>
@@ -3036,11 +3070,11 @@
         <v>188</v>
       </c>
       <c r="G193" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.800000000000072</v>
       </c>
       <c r="H193" s="1">
-        <f>G193+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.850000000000072</v>
       </c>
     </row>
@@ -3049,11 +3083,11 @@
         <v>189</v>
       </c>
       <c r="G194" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>23.900000000000073</v>
       </c>
       <c r="H194" s="1">
-        <f>G194+$D$2</f>
+        <f t="shared" si="4"/>
         <v>23.950000000000074</v>
       </c>
     </row>
@@ -3062,11 +3096,11 @@
         <v>190</v>
       </c>
       <c r="G195" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24.000000000000075</v>
       </c>
       <c r="H195" s="1">
-        <f>G195+$D$2</f>
+        <f t="shared" si="4"/>
         <v>24.050000000000075</v>
       </c>
     </row>
@@ -3075,11 +3109,11 @@
         <v>191</v>
       </c>
       <c r="G196" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24.100000000000076</v>
       </c>
       <c r="H196" s="1">
-        <f>G196+$D$2</f>
+        <f t="shared" si="4"/>
         <v>24.150000000000077</v>
       </c>
     </row>
@@ -3088,11 +3122,11 @@
         <v>192</v>
       </c>
       <c r="G197" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24.200000000000077</v>
       </c>
       <c r="H197" s="1">
-        <f>G197+$D$2</f>
+        <f t="shared" ref="H197:H260" si="6">G197+$D$2</f>
         <v>24.250000000000078</v>
       </c>
     </row>
@@ -3101,11 +3135,11 @@
         <v>193</v>
       </c>
       <c r="G198" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>24.300000000000079</v>
       </c>
       <c r="H198" s="1">
-        <f>G198+$D$2</f>
+        <f t="shared" si="6"/>
         <v>24.35000000000008</v>
       </c>
     </row>
@@ -3114,11 +3148,11 @@
         <v>194</v>
       </c>
       <c r="G199" s="1">
-        <f t="shared" ref="G199:G205" si="3">G198+$B$2</f>
+        <f t="shared" ref="G199:G205" si="7">G198+$B$2</f>
         <v>24.40000000000008</v>
       </c>
       <c r="H199" s="1">
-        <f>G199+$D$2</f>
+        <f t="shared" si="6"/>
         <v>24.450000000000081</v>
       </c>
     </row>
@@ -3127,11 +3161,11 @@
         <v>195</v>
       </c>
       <c r="G200" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.500000000000082</v>
       </c>
       <c r="H200" s="1">
-        <f>G200+$D$2</f>
+        <f t="shared" si="6"/>
         <v>24.550000000000082</v>
       </c>
     </row>
@@ -3140,11 +3174,11 @@
         <v>196</v>
       </c>
       <c r="G201" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.600000000000083</v>
       </c>
       <c r="H201" s="1">
-        <f>G201+$D$2</f>
+        <f t="shared" si="6"/>
         <v>24.650000000000084</v>
       </c>
     </row>
@@ -3153,11 +3187,11 @@
         <v>197</v>
       </c>
       <c r="G202" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.700000000000085</v>
       </c>
       <c r="H202" s="1">
-        <f>G202+$D$2</f>
+        <f t="shared" si="6"/>
         <v>24.750000000000085</v>
       </c>
     </row>
@@ -3166,11 +3200,11 @@
         <v>198</v>
       </c>
       <c r="G203" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.800000000000086</v>
       </c>
       <c r="H203" s="1">
-        <f>G203+$D$2</f>
+        <f t="shared" si="6"/>
         <v>24.850000000000087</v>
       </c>
     </row>
@@ -3179,11 +3213,11 @@
         <v>199</v>
       </c>
       <c r="G204" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.900000000000087</v>
       </c>
       <c r="H204" s="1">
-        <f>G204+$D$2</f>
+        <f t="shared" si="6"/>
         <v>24.950000000000088</v>
       </c>
     </row>
@@ -3192,12 +3226,686 @@
         <v>200</v>
       </c>
       <c r="G205" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.000000000000089</v>
       </c>
       <c r="H205" s="1">
-        <f>G205+$D$2</f>
+        <f t="shared" si="6"/>
         <v>25.05000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342BB893-96F8-400E-BAE3-DA781CD36732}">
+  <dimension ref="A1:R108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2/2</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f>A2</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <f>B2</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <f>C2</f>
+        <v>-7</v>
+      </c>
+      <c r="J5" s="3">
+        <f>G5+$F$2</f>
+        <v>5.05</v>
+      </c>
+      <c r="K5" s="3">
+        <f>$D$2*I5</f>
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="L5" s="2">
+        <f>$D$2*(I5+O5/2)</f>
+        <v>-1.3</v>
+      </c>
+      <c r="M5" s="2">
+        <f>$D$2*(I5+P5/2)</f>
+        <v>-2.089</v>
+      </c>
+      <c r="N5" s="2">
+        <f>$D$2*(I5+Q5)</f>
+        <v>-5.5052972500000008</v>
+      </c>
+      <c r="O5" s="2">
+        <f>$D$2*(I5*G5^2+H5*G5+5)</f>
+        <v>-12</v>
+      </c>
+      <c r="P5" s="3">
+        <f>$D$2*((I5+O5/2)*J5^2+(H5+K5/2)*J5+5)</f>
+        <v>-27.779999999999998</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>$D$2*((I5+P5/2)*J5^2+(H5+L5/2)*J5+5)</f>
+        <v>-48.052972500000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
